--- a/LINEAS BASE/UL/Linea base 1/CRONOGRAMA DE ACTIVIDADES.xlsx
+++ b/LINEAS BASE/UL/Linea base 1/CRONOGRAMA DE ACTIVIDADES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>Ruta del Repositorio de Github</t>
   </si>
@@ -122,94 +122,103 @@
     <t>Documento de Guía de Estilos</t>
   </si>
   <si>
+    <t>UL-DGE.PDF</t>
+  </si>
+  <si>
+    <t>Especificar la Arquitectura y Diseño del Software</t>
+  </si>
+  <si>
+    <t>Documento de Arquitectura del Software</t>
+  </si>
+  <si>
+    <t>UL-DAS.PDF</t>
+  </si>
+  <si>
+    <t>Reportar estado actual del software</t>
+  </si>
+  <si>
+    <t>Reporte del Desarrollo del Software</t>
+  </si>
+  <si>
+    <t>UL-RDS.PDF</t>
+  </si>
+  <si>
+    <t>Realizar Sprint Retrospective</t>
+  </si>
+  <si>
+    <t>Reporte del Primer Sprint</t>
+  </si>
+  <si>
+    <t>UL-RPS.PDF</t>
+  </si>
+  <si>
+    <t>Hito 1 - Fin del Sprint #1</t>
+  </si>
+  <si>
+    <t>Verificar y Actualizar los Requisitos del Software</t>
+  </si>
+  <si>
+    <t>Verificar y Actualizar documento de Especificación de UI</t>
+  </si>
+  <si>
+    <t>HU_001 - Modular Información de la Pagina Web</t>
+  </si>
+  <si>
+    <t>Modulo Página Principal</t>
+  </si>
+  <si>
+    <t>HU_002 - Modular Autenticación de Usuario (Login)</t>
+  </si>
+  <si>
+    <t>Módulo de Autenticación de Usuario</t>
+  </si>
+  <si>
+    <t>UL-RDS.DOCX</t>
+  </si>
+  <si>
+    <t>Reporte del Segundo Sprint</t>
+  </si>
+  <si>
+    <t>UL-RSS.PDF</t>
+  </si>
+  <si>
+    <t>Hito 2 - Fin del Sprint #2</t>
+  </si>
+  <si>
+    <t>HU_003 - Modular Usuario Cliente</t>
+  </si>
+  <si>
+    <t>Módulo de Usuario Cliente</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar documento de Requisitos del Software</t>
+  </si>
+  <si>
+    <t>UL-DER.DOCX</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar documento de Especificación de UI</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar la Arquitectura y Diseño del Software</t>
+  </si>
+  <si>
+    <t>UL-DAS.DOCX</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar la Lista de Historia de Usuarios</t>
+  </si>
+  <si>
+    <t>Lista de Historias de Usuario</t>
+  </si>
+  <si>
+    <t>UL-LHU.DOCX</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar la Guía de Estilos</t>
+  </si>
+  <si>
     <t>UL-DGE.DOCX</t>
-  </si>
-  <si>
-    <t>Especificar la Arquitectura y Diseño del Software</t>
-  </si>
-  <si>
-    <t>Documento de Arquitectura del Software</t>
-  </si>
-  <si>
-    <t>UL-DAS.DOCX</t>
-  </si>
-  <si>
-    <t>Reportar estado actual del software</t>
-  </si>
-  <si>
-    <t>Reporte del Desarrollo del Software</t>
-  </si>
-  <si>
-    <t>UL-RDS.DOCX</t>
-  </si>
-  <si>
-    <t>Realizar Sprint Retrospective</t>
-  </si>
-  <si>
-    <t>Reporte del Primer Sprint</t>
-  </si>
-  <si>
-    <t>UL-RPS.PDF</t>
-  </si>
-  <si>
-    <t>Hito 1 - Fin del Sprint #1</t>
-  </si>
-  <si>
-    <t>Verificar y Actualizar los Requisitos del Software</t>
-  </si>
-  <si>
-    <t>UL-DER.DOCX</t>
-  </si>
-  <si>
-    <t>Verificar y Actualizar documento de Especificación de UI</t>
-  </si>
-  <si>
-    <t>HU_001 - Modular Información de la Pagina Web</t>
-  </si>
-  <si>
-    <t>Modulo Página Principal</t>
-  </si>
-  <si>
-    <t>HU_002 - Modular Autenticación de Usuario (Login)</t>
-  </si>
-  <si>
-    <t>Módulo de Autenticación de Usuario</t>
-  </si>
-  <si>
-    <t>Reporte del Segundo Sprint</t>
-  </si>
-  <si>
-    <t>UL-RSS.PDF</t>
-  </si>
-  <si>
-    <t>Hito 2 - Fin del Sprint #2</t>
-  </si>
-  <si>
-    <t>HU_003 - Modular Usuario Cliente</t>
-  </si>
-  <si>
-    <t>Módulo de Usuario Cliente</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar documento de Requisitos del Software</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar documento de Especificación de UI</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar la Arquitectura y Diseño del Software</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar la Lista de Historia de Usuarios</t>
-  </si>
-  <si>
-    <t>Lista de Historias de Usuario</t>
-  </si>
-  <si>
-    <t>UL-LHU.DOCX</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar la Guía de Estilos</t>
   </si>
   <si>
     <t>Generar documentación para el usuario</t>
@@ -1175,7 +1184,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>17</v>
@@ -1192,7 +1201,7 @@
     </row>
     <row r="24">
       <c r="B24" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>32</v>
@@ -1215,10 +1224,10 @@
     </row>
     <row r="25">
       <c r="B25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>16</v>
@@ -1238,10 +1247,10 @@
     </row>
     <row r="26">
       <c r="B26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>16</v>
@@ -1267,7 +1276,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>27</v>
@@ -1353,7 +1362,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>17</v>
@@ -1370,7 +1379,7 @@
     </row>
     <row r="32">
       <c r="B32" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>32</v>
@@ -1393,13 +1402,13 @@
     </row>
     <row r="33">
       <c r="B33" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>17</v>
@@ -1416,13 +1425,13 @@
     </row>
     <row r="34">
       <c r="B34" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>17</v>
@@ -1439,13 +1448,13 @@
     </row>
     <row r="35">
       <c r="B35" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>17</v>
@@ -1462,13 +1471,13 @@
     </row>
     <row r="36">
       <c r="B36" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>17</v>
@@ -1485,13 +1494,13 @@
     </row>
     <row r="37">
       <c r="B37" s="31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>17</v>
@@ -1514,7 +1523,7 @@
         <v>41</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>17</v>
@@ -1534,10 +1543,10 @@
         <v>43</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>27</v>
@@ -1554,13 +1563,13 @@
     </row>
     <row r="40">
       <c r="B40" s="31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>17</v>
@@ -1577,7 +1586,7 @@
     </row>
     <row r="41">
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -1620,55 +1629,55 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
